--- a/相关文档/對白事件人物映射表.xlsx
+++ b/相关文档/對白事件人物映射表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,38 @@
   </si>
   <si>
     <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰璃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗睺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封铃笙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫申</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3623,11 +3655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4164,6 +4196,38 @@
         <v>35</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
